--- a/src/main/resources/excelToJSONTest.xlsx
+++ b/src/main/resources/excelToJSONTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzh/home/skkj/workspace/example/ExcelToJSON/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C20C94-F7CE-D444-8FDE-6EB404DFEE18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224ABC2D-DCC9-0149-A3C5-13AB630ADE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29100" yWindow="3860" windowWidth="27040" windowHeight="15940" activeTab="3" xr2:uid="{3CB71252-D167-DD4C-B324-BF1EC4E6018C}"/>
+    <workbookView xWindow="4000" yWindow="2960" windowWidth="11380" windowHeight="18560" xr2:uid="{3CB71252-D167-DD4C-B324-BF1EC4E6018C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7EEC38-94DA-C94C-AF54-0FEAA108241A}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -638,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BBC2FD-8E4E-5949-AA17-DB44C3B7AF23}">
   <dimension ref="A2:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/excelToJSONTest.xlsx
+++ b/src/main/resources/excelToJSONTest.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yzh/home/skkj/workspace/example/ExcelToJSON/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224ABC2D-DCC9-0149-A3C5-13AB630ADE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3C3EDC1-EBA1-E042-A59C-F5455F629267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="2960" windowWidth="11380" windowHeight="18560" xr2:uid="{3CB71252-D167-DD4C-B324-BF1EC4E6018C}"/>
+    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="21380" activeTab="5" xr2:uid="{3CB71252-D167-DD4C-B324-BF1EC4E6018C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="SheetItem#{Sheet1!A1}" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3Item#{Sheet1}" sheetId="3" r:id="rId4"/>
+    <sheet name="root" sheetId="5" r:id="rId1"/>
+    <sheet name="SheetItem{Sheet1#{root!3}!3}" sheetId="2" r:id="rId2"/>
+    <sheet name="SheetItem{Sheet1#{root!3}!4}" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1#{root!3}" sheetId="1" r:id="rId4"/>
+    <sheet name="{root}" sheetId="6" r:id="rId5"/>
+    <sheet name="root2" sheetId="8" r:id="rId6"/>
+    <sheet name="Sheet4#{root}" sheetId="4" r:id="rId7"/>
+    <sheet name="Sheet3Item#{Sheet1#{root!3}}" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>test1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>a2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -62,13 +62,52 @@
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里是提示信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>Sheet2A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet2B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item1</t>
+  </si>
+  <si>
+    <t>item1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item2</t>
+  </si>
+  <si>
+    <t>item2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>a2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +127,14 @@
       <sz val="9.8000000000000007"/>
       <color rgb="FF080808"/>
       <name val="JetBrains Mono"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -127,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,6 +182,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -450,67 +500,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7EEC38-94DA-C94C-AF54-0FEAA108241A}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE2F7A6-741B-F148-8390-97F2157EA00D}">
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" s="1" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -519,7 +530,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B6" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -529,7 +540,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
@@ -541,7 +557,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -549,7 +565,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>21</v>
@@ -557,7 +573,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -565,7 +581,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>21</v>
@@ -579,15 +595,157 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5504C681-2532-0542-8B8A-3F3002BC066F}">
-  <dimension ref="A2:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61FF2326-9096-3F43-9E62-0506FA9B5D2E}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="H41" sqref="H41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7EEC38-94DA-C94C-AF54-0FEAA108241A}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CDF8F55-80E5-9847-9071-94BE3E97D4E1}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
@@ -598,7 +756,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -606,7 +764,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>21</v>
@@ -614,7 +772,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -622,9 +780,74 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD8C280-473F-6A4A-91D3-E9806A2223BF}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3">
         <v>21</v>
       </c>
     </row>
@@ -634,12 +857,76 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5504C681-2532-0542-8B8A-3F3002BC066F}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1">
+        <v>4</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BBC2FD-8E4E-5949-AA17-DB44C3B7AF23}">
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -658,7 +945,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>21</v>
@@ -666,7 +953,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>21</v>
@@ -674,7 +961,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5">
         <v>21</v>
@@ -682,7 +969,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6">
         <v>21</v>
